--- a/Income/IEX_inc.xlsx
+++ b/Income/IEX_inc.xlsx
@@ -3507,16 +3507,16 @@
         <v>0.2638</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.2624</v>
+        <v>0.2594</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.2596</v>
+        <v>0.2567</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.267</v>
+        <v>0.2641</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.2663</v>
+        <v>0.2635</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.2642</v>
